--- a/Datasets/annotated_dataset/tweets_session_2_1.xlsx
+++ b/Datasets/annotated_dataset/tweets_session_2_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nils_hellwig/Desktop/Studium/Masterstudium WS 2022:23/DH Projekt/Twitter_German_Federal_Election_Perception_2021/Datasets/annotated_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A57C412-8FD9-AD44-9941-AB3A0ECB72C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8D38BE-6388-EC4F-AA20-3917BD7F2C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="31620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33620" yWindow="500" windowWidth="26540" windowHeight="31640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12236,7 +12236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12249,14 +12249,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -12291,19 +12283,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12606,13 +12595,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A949" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="F1010" sqref="F1010"/>
+    <sheetView tabSelected="1" topLeftCell="A965" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="39.83203125" customWidth="1"/>
     <col min="6" max="6" width="255.6640625" customWidth="1"/>
@@ -31687,7 +31675,7 @@
       <c r="F658" t="s">
         <v>2701</v>
       </c>
-      <c r="G658" s="2" t="s">
+      <c r="G658" t="s">
         <v>2702</v>
       </c>
       <c r="H658" t="s">
@@ -38082,7 +38070,7 @@
         <v>1877</v>
       </c>
       <c r="B879">
-        <v>1.4454697219277E+18</v>
+        <v>1.4454697219276959E+18</v>
       </c>
       <c r="C879" t="s">
         <v>3581</v>
@@ -41646,13 +41634,10 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1001" xr:uid="{A4765683-3919-BF4D-8E76-926358366306}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1001" xr:uid="{769058BF-DB0E-9A4F-981E-691560DBD67C}">
       <formula1>"POSITIVE,NEGATIVE,NEUTRAL,MIXED"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G658" r:id="rId1" xr:uid="{3944EE79-251B-0D44-99D5-71C40372BC89}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>